--- a/RegresiónLógica.xlsx
+++ b/RegresiónLógica.xlsx
@@ -5,16 +5,73 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\OneDrive\Documentos\Octavo Semestre\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF9EBA4-228F-493B-BD6A-DEE2539C5168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4991B728-5DF2-4116-845E-06D2C416FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{826B3647-1BCF-457A-9416-BDDAC43628AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$F$1:$F$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$F$1:$F$3</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$F$5</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$F$5</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>X1</t>
   </si>
@@ -48,6 +105,12 @@
   </si>
   <si>
     <t>Cuanto dan los valores teta 1 y teta 2 en su version logistica y la grafica que geenera Exel</t>
+  </si>
+  <si>
+    <t>Yobt</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -100,6 +163,1813 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB03-4F3E-B49F-3DE403751FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="873654047"/>
+        <c:axId val="873651647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="873654047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873651647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873651647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873654047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yobt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57607201442704403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61301503578184402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64870190605292333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68280069415411349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77E9-4C8C-B11F-FE9FB2060526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714178800"/>
+        <c:axId val="714178320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714178800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714178320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714178320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714178800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1D5DA4-E999-17A6-9320-7ECAA380986F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A01C11-BBF6-BA59-7D2C-1EF971F518A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,15 +2289,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB73D9F-973D-412F-AB5B-7C3CCD911789}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +2307,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,11 +2327,19 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="D2">
+        <f>1/(1+EXP(-(F$1 + F$2*A2 + F$3*B2)))</f>
+        <v>0.57607201442704403</v>
+      </c>
+      <c r="E2">
+        <f>-(C2*LN(D2) + (1-C2)*LN(1-D2))</f>
+        <v>0.85819168352233555</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -462,8 +2349,19 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">1/(1+EXP(-(F$1 + F$2*A3 + F$3*B3)))</f>
+        <v>0.61301503578184402</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">-(C3*LN(D3) + (1-C3)*LN(1-D3))</f>
+        <v>0.94936943885658731</v>
+      </c>
+      <c r="F3">
+        <v>0.15333454123403067</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -471,10 +2369,18 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.64870190605292333</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.43278198050179995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -482,7 +2388,153 @@
         <v>5</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>1/(1+EXP(-(F$1 + F$2*A5 + F$3*B5)))</f>
+        <v>0.68280069415411349</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.38155227143361392</v>
+      </c>
+      <c r="F5">
+        <f>SUM(E2:E5)</f>
+        <v>2.6218953743143367</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0">
+    <scenario name="Prueba" count="3" user="Noe Ramses Gonzalez  Llamosas" comment="Creado por Noe Ramses Gonzalez  Llamosas el 10/3/2024">
+      <inputCells r="F1" val="0"/>
+      <inputCells r="F2" val="0"/>
+      <inputCells r="F3" val="0.153334541234031"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADFADB7-B387-4C1C-B11C-49B75BBC37C4}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>1/(1+EXP(-(F$1 + F$2*A2 + F$3*B2)))</f>
+        <v>0.598687660112452</v>
+      </c>
+      <c r="E2">
+        <f>-(C2*LN(D2) + (1-C2)*LN(1-D2))</f>
+        <v>0.91301525239995263</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">1/(1+EXP(-(F$1 + F$2*A3 + F$3*B3)))</f>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">-(C3*LN(D3) + (1-C3)*LN(1-D3))</f>
+        <v>0.9740769841801068</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.43748795048588573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>1/(1+EXP(-(F$1 + F$2*A5 + F$3*B5)))</f>
+        <v>0.66818777216816616</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.40318604888545784</v>
+      </c>
+      <c r="F5">
+        <f>SUM(E2:E5)</f>
+        <v>2.7277662359514028</v>
       </c>
     </row>
   </sheetData>
